--- a/default-files/Example_ExcelReference/excel/Main/Localization/english/Y游戏内文字_Strings_Tips_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/Main/Localization/english/Y游戏内文字_Strings_Tips_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\Main\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38402203-CD79-4575-8D3A-D472B8451F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8596EA78-F119-4E3D-9CE1-514059505E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,10 +174,10 @@
     <t>Recrutar tropas de cidades diferentes resulta em diferenças significativas, especialmente quando aprimoradas para níveis mais altos. Experimente usar uma variedade de tropas.</t>
   </si>
   <si>
-    <t>Você está agora no Modo de Cerco.
+    <t>"Você está agora no Modo de Cerco.
 O tempo do jogo avançará lentamente após abrir o mapa tático e a interface de estratégia. Nesta visão, você pode ajustar a estratégia de cada unidade e observar toda a situação do campo de batalha. Este mapa tático pode ser acessado a qualquer momento durante a batalha usando a tecla de atalho definida.
 No Modo de Cerco, nenhuma tropa ressuscitará após ser derrotada. O número total de tropas de cada lado não excederá a "Escala Máxima de Batalha" em suas configurações de jogo. Tropas que não podem lutar devido a esse limite aparecerão no acampamento base como "Reforços". Heróis (incluindo o jogador) na força atacante terão 2 chances de ressurgir; heróis (incluindo o jogador) na força defensora podem ressurgir indefinidamente.
-Como vencer: A primeira equipe a ocupar todas as fortalezas reivindica a vitória.</t>
+Como vencer: A primeira equipe a ocupar todas as fortalezas reivindica a vitória."</t>
   </si>
 </sst>
 </file>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C428"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/default-files/Example_ExcelReference/excel/Main/Localization/english/Y游戏内文字_Strings_Tips_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/Main/Localization/english/Y游戏内文字_Strings_Tips_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\Main\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8596EA78-F119-4E3D-9CE1-514059505E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C94827D-10BE-4E6A-A120-3AD4448EA978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,10 +174,10 @@
     <t>Recrutar tropas de cidades diferentes resulta em diferenças significativas, especialmente quando aprimoradas para níveis mais altos. Experimente usar uma variedade de tropas.</t>
   </si>
   <si>
-    <t>"Você está agora no Modo de Cerco.
+    <t>Você está agora no Modo de Cerco.
 O tempo do jogo avançará lentamente após abrir o mapa tático e a interface de estratégia. Nesta visão, você pode ajustar a estratégia de cada unidade e observar toda a situação do campo de batalha. Este mapa tático pode ser acessado a qualquer momento durante a batalha usando a tecla de atalho definida.
 No Modo de Cerco, nenhuma tropa ressuscitará após ser derrotada. O número total de tropas de cada lado não excederá a "Escala Máxima de Batalha" em suas configurações de jogo. Tropas que não podem lutar devido a esse limite aparecerão no acampamento base como "Reforços". Heróis (incluindo o jogador) na força atacante terão 2 chances de ressurgir; heróis (incluindo o jogador) na força defensora podem ressurgir indefinidamente.
-Como vencer: A primeira equipe a ocupar todas as fortalezas reivindica a vitória."</t>
+Como vencer: A primeira equipe a ocupar todas as fortalezas reivindica a vitória.</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
